--- a/uploads/import_12.xlsx
+++ b/uploads/import_12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -67,6 +67,45 @@
   </si>
   <si>
     <t>teguh@adirect.web.id</t>
+  </si>
+  <si>
+    <t>MOP ID</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>adam_pras</t>
+  </si>
+  <si>
+    <t>teguh_san</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>adam_fb</t>
+  </si>
+  <si>
+    <t>adam_tw</t>
+  </si>
+  <si>
+    <t>adam_ins</t>
+  </si>
+  <si>
+    <t>teguh_fb</t>
+  </si>
+  <si>
+    <t>teguh_tw</t>
+  </si>
+  <si>
+    <t>teguh_ins</t>
   </si>
 </sst>
 </file>
@@ -104,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,19 +166,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,122 +511,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>11111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>1989</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>22222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1987</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="11">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
